--- a/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
+++ b/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
@@ -327,12 +327,6 @@
     <t>KR-9010</t>
   </si>
   <si>
-    <t>482899016V</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>482389304V</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>KR-9100</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>482009016V</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
@@ -801,7 +801,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -810,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -822,7 +822,7 @@
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>32</v>
@@ -861,7 +861,7 @@
         <v>42</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>100</v>
@@ -878,7 +878,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>43</v>

--- a/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
+++ b/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="131">
   <si>
     <t>customer</t>
   </si>
@@ -291,30 +291,12 @@
     <t>CR111*</t>
   </si>
   <si>
-    <t>817601910V</t>
-  </si>
-  <si>
-    <t>817628020V</t>
-  </si>
-  <si>
-    <t>810961320V</t>
-  </si>
-  <si>
-    <t>817460020V</t>
-  </si>
-  <si>
-    <t>817091900V</t>
-  </si>
-  <si>
     <t>7700000005</t>
   </si>
   <si>
     <t>Ampara</t>
   </si>
   <si>
-    <t>482485006v</t>
-  </si>
-  <si>
     <t>7700034305</t>
   </si>
   <si>
@@ -327,9 +309,6 @@
     <t>KR-9010</t>
   </si>
   <si>
-    <t>482389304V</t>
-  </si>
-  <si>
     <t>7700890000</t>
   </si>
   <si>
@@ -339,7 +318,97 @@
     <t>22</t>
   </si>
   <si>
-    <t>482009016V</t>
+    <t>282389304V</t>
+  </si>
+  <si>
+    <t>282009016V</t>
+  </si>
+  <si>
+    <t>282485006v</t>
+  </si>
+  <si>
+    <t>217601910V</t>
+  </si>
+  <si>
+    <t>217628020V</t>
+  </si>
+  <si>
+    <t>210961320V</t>
+  </si>
+  <si>
+    <t>217460020V</t>
+  </si>
+  <si>
+    <t>217091900V</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahinda </t>
+  </si>
+  <si>
+    <t>Rajapaksa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gotabaya </t>
+  </si>
+  <si>
+    <t>Namal</t>
+  </si>
+  <si>
+    <t>217091930V</t>
+  </si>
+  <si>
+    <t>217091905V</t>
+  </si>
+  <si>
+    <t>217091902V</t>
+  </si>
+  <si>
+    <t>7700400005</t>
+  </si>
+  <si>
+    <t>7700000505</t>
+  </si>
+  <si>
+    <t>7720000005</t>
+  </si>
+  <si>
+    <t>Hambantota</t>
+  </si>
+  <si>
+    <t>Galle</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>KR-9608</t>
+  </si>
+  <si>
+    <t>KR-9609</t>
+  </si>
+  <si>
+    <t>KR-9610</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>42/B</t>
+  </si>
+  <si>
+    <t>560/D</t>
+  </si>
+  <si>
+    <t>10/F</t>
   </si>
 </sst>
 </file>
@@ -680,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
@@ -801,7 +870,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -810,19 +879,19 @@
         <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>32</v>
@@ -861,10 +930,10 @@
         <v>42</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="30">
@@ -878,7 +947,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>43</v>
@@ -887,7 +956,7 @@
         <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>45</v>
@@ -899,7 +968,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>32</v>
@@ -941,7 +1010,7 @@
         <v>87</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -955,7 +1024,7 @@
         <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>67</v>
@@ -964,7 +1033,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>45</v>
@@ -1017,7 +1086,7 @@
         <v>86</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>69</v>
@@ -1026,7 +1095,7 @@
         <v>70</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>45</v>
@@ -1079,7 +1148,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>61</v>
@@ -1088,7 +1157,7 @@
         <v>62</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>45</v>
@@ -1141,7 +1210,7 @@
         <v>86</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>63</v>
@@ -1150,7 +1219,7 @@
         <v>64</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>45</v>
@@ -1203,7 +1272,7 @@
         <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>65</v>
@@ -1212,7 +1281,7 @@
         <v>66</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>45</v>
@@ -1265,7 +1334,7 @@
         <v>86</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>74</v>
@@ -1274,7 +1343,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>45</v>
@@ -1314,6 +1383,183 @@
       </c>
       <c r="AC9" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="2">
+        <v>90000</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="2">
+        <v>150000</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
+++ b/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="236">
   <si>
     <t>customer</t>
   </si>
@@ -180,12 +181,6 @@
     <t>T221-Preprod</t>
   </si>
   <si>
-    <t>KR-9602</t>
-  </si>
-  <si>
-    <t>KR-9604</t>
-  </si>
-  <si>
     <t>55%</t>
   </si>
   <si>
@@ -231,21 +226,9 @@
     <t>Sirisena</t>
   </si>
   <si>
-    <t>KR-9603</t>
-  </si>
-  <si>
-    <t>KR-9605</t>
-  </si>
-  <si>
-    <t>KR-9606</t>
-  </si>
-  <si>
     <t>Sanath</t>
   </si>
   <si>
-    <t>KR-9607</t>
-  </si>
-  <si>
     <t>Maount Lavinia</t>
   </si>
   <si>
@@ -306,15 +289,9 @@
     <t>CR*,Manual Cover note*, NCB Proof*</t>
   </si>
   <si>
-    <t>KR-9010</t>
-  </si>
-  <si>
     <t>7700890000</t>
   </si>
   <si>
-    <t>KR-9100</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -384,15 +361,6 @@
     <t>CP</t>
   </si>
   <si>
-    <t>KR-9608</t>
-  </si>
-  <si>
-    <t>KR-9609</t>
-  </si>
-  <si>
-    <t>KR-9610</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -409,13 +377,361 @@
   </si>
   <si>
     <t>10/F</t>
+  </si>
+  <si>
+    <t>covers</t>
+  </si>
+  <si>
+    <t>terrorism,pab,towing,learner_driver,special_windscreen, taxi</t>
+  </si>
+  <si>
+    <t>towing,learner_driver,special_windscreen</t>
+  </si>
+  <si>
+    <t>terrorism,pab,towing</t>
+  </si>
+  <si>
+    <t>taxi</t>
+  </si>
+  <si>
+    <t>KR-9199</t>
+  </si>
+  <si>
+    <t>KR-5236</t>
+  </si>
+  <si>
+    <t>BOC Debit &amp; Credit Card</t>
+  </si>
+  <si>
+    <t>A.M. Motor Trading 3W</t>
+  </si>
+  <si>
+    <t>AAB-9602</t>
+  </si>
+  <si>
+    <t>BAY-4521</t>
+  </si>
+  <si>
+    <t>Arpico finance 2W</t>
+  </si>
+  <si>
+    <t>CAW-4012</t>
+  </si>
+  <si>
+    <t>LB-2605</t>
+  </si>
+  <si>
+    <t>LB-2514</t>
+  </si>
+  <si>
+    <t>LB-2459</t>
+  </si>
+  <si>
+    <t>BAY-3354</t>
+  </si>
+  <si>
+    <t>BAY-4879</t>
+  </si>
+  <si>
+    <t>BAY-8874</t>
+  </si>
+  <si>
+    <t>AAB-2547</t>
+  </si>
+  <si>
+    <t>AAB-9874</t>
+  </si>
+  <si>
+    <t>AAB-4578</t>
+  </si>
+  <si>
+    <t>Alliance finance 3w UR</t>
+  </si>
+  <si>
+    <t>Alliance finance Reg  3W</t>
+  </si>
+  <si>
+    <t>Commercial Leasing 3W</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>A.M. Motor Trading MC</t>
+  </si>
+  <si>
+    <t>Abans Finanace  2W</t>
+  </si>
+  <si>
+    <t>Abans Finanace 3w</t>
+  </si>
+  <si>
+    <t>Alliance Finance 2W</t>
+  </si>
+  <si>
+    <t>Alliance finance 2w Risk models</t>
+  </si>
+  <si>
+    <t>Alliance finance 3w</t>
+  </si>
+  <si>
+    <t>AMW Capital Leasing 2W</t>
+  </si>
+  <si>
+    <t>Arpico finance 3W</t>
+  </si>
+  <si>
+    <t>Asia Asset 3W Reg</t>
+  </si>
+  <si>
+    <t>Asia Asset UR3W</t>
+  </si>
+  <si>
+    <t>Assetline package 2W</t>
+  </si>
+  <si>
+    <t>Assetline package REG 3W</t>
+  </si>
+  <si>
+    <t>Assetline package UR  2w</t>
+  </si>
+  <si>
+    <t>Associated Motor Finance 2W</t>
+  </si>
+  <si>
+    <t>BOC Staff Package</t>
+  </si>
+  <si>
+    <t>CDB (REG) 3W</t>
+  </si>
+  <si>
+    <t>CDB UR 3W</t>
+  </si>
+  <si>
+    <t>CF Three Wheeler</t>
+  </si>
+  <si>
+    <t>Commercial Credit 2W</t>
+  </si>
+  <si>
+    <t>Commercial Credit package Reg 3W</t>
+  </si>
+  <si>
+    <t>Commercial Credit UR 3W</t>
+  </si>
+  <si>
+    <t>Cooparative 3W REG</t>
+  </si>
+  <si>
+    <t>Cooparative 3W UR</t>
+  </si>
+  <si>
+    <t>Hiring Lorry Leasing</t>
+  </si>
+  <si>
+    <t>HNB Grameen 3W UR</t>
+  </si>
+  <si>
+    <t>HNB Grameen REG 3W</t>
+  </si>
+  <si>
+    <t>HSBC Advance Card</t>
+  </si>
+  <si>
+    <t>HSBC Credit Card/Debit Card</t>
+  </si>
+  <si>
+    <t>HSBC Premium Card</t>
+  </si>
+  <si>
+    <t>Ideal Finance 3W Reg</t>
+  </si>
+  <si>
+    <t>Ideal Finance Ltd (3W) UR</t>
+  </si>
+  <si>
+    <t>Ideal Motors (PVT) Ltd</t>
+  </si>
+  <si>
+    <t>Kanrich Finance</t>
+  </si>
+  <si>
+    <t>LB Finance 2W</t>
+  </si>
+  <si>
+    <t>LB Finance 3w REG</t>
+  </si>
+  <si>
+    <t>LB Finance 3W UR</t>
+  </si>
+  <si>
+    <t>MBSL &amp; Finance Plc U/R Bikes</t>
+  </si>
+  <si>
+    <t>Melstar Package</t>
+  </si>
+  <si>
+    <t>Melstar packege(3W)</t>
+  </si>
+  <si>
+    <t>Mercantile Investment (3W)</t>
+  </si>
+  <si>
+    <t>Milanka Invesment (2W)</t>
+  </si>
+  <si>
+    <t>NDB Card Promo</t>
+  </si>
+  <si>
+    <t>NTB Unregistered Bikes</t>
+  </si>
+  <si>
+    <t>Orient Finance 2W</t>
+  </si>
+  <si>
+    <t>Orient Finance 3W REG</t>
+  </si>
+  <si>
+    <t>Orient Finance 3w UR</t>
+  </si>
+  <si>
+    <t>PABC</t>
+  </si>
+  <si>
+    <t>Private Dual Purpose Leasing</t>
+  </si>
+  <si>
+    <t>Private Lorry Leasing</t>
+  </si>
+  <si>
+    <t>Sampath Bank</t>
+  </si>
+  <si>
+    <t>Sarvodaya 3W</t>
+  </si>
+  <si>
+    <t>SCB</t>
+  </si>
+  <si>
+    <t>School Van Package</t>
+  </si>
+  <si>
+    <t>Senkadagala Finance 3w</t>
+  </si>
+  <si>
+    <t>Seylan Card</t>
+  </si>
+  <si>
+    <t>Seylan Easy pay</t>
+  </si>
+  <si>
+    <t>Singer Finance</t>
+  </si>
+  <si>
+    <t>Singer Finance Package 2W</t>
+  </si>
+  <si>
+    <t>Singer Finance reg 2w</t>
+  </si>
+  <si>
+    <t>Singhaputra finance</t>
+  </si>
+  <si>
+    <t>SIYAPATHA LOYALTY CARD</t>
+  </si>
+  <si>
+    <t>Stafford Motors (PVT) Ltd.</t>
+  </si>
+  <si>
+    <t>TFC Reg 3W</t>
+  </si>
+  <si>
+    <t>TFC UR 3W</t>
+  </si>
+  <si>
+    <t>Tourist Guide Dual Purpose</t>
+  </si>
+  <si>
+    <t>Tourist Guide HC Pkg</t>
+  </si>
+  <si>
+    <t>Trade finance &amp; inv (Risk Models) 2W</t>
+  </si>
+  <si>
+    <t>Trade finance &amp; inv UR 3W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiring </t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private &amp; Hiring </t>
+  </si>
+  <si>
+    <t>KFZ02</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Wheel Hiring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Cycle </t>
+  </si>
+  <si>
+    <t>Passenger car &amp; D/P</t>
+  </si>
+  <si>
+    <t>D/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passenger car </t>
+  </si>
+  <si>
+    <t>passenger car;D/P;Motor Coach;3 Wheel</t>
+  </si>
+  <si>
+    <t>Passenger car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Coach &amp; omini bus </t>
+  </si>
+  <si>
+    <t>Motor Coach &amp; D/P</t>
+  </si>
+  <si>
+    <t>passenger car , D/P , 3 Wheel , Motor Cycle</t>
+  </si>
+  <si>
+    <t>passenger car</t>
+  </si>
+  <si>
+    <t>tttt</t>
+  </si>
+  <si>
+    <t>AAB-6789</t>
+  </si>
+  <si>
+    <t>BAX-1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,13 +739,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -444,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -455,6 +792,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
@@ -767,99 +1113,103 @@
     <col min="25" max="25" width="29.85546875" style="1" customWidth="1"/>
     <col min="26" max="28" width="18.28515625" style="3"/>
     <col min="29" max="29" width="30.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="18.28515625" style="1"/>
+    <col min="30" max="30" width="75.7109375" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AB1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -867,10 +1217,10 @@
         <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -879,19 +1229,19 @@
         <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>32</v>
@@ -930,13 +1280,16 @@
         <v>42</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="30">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="30">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -944,10 +1297,10 @@
         <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>43</v>
@@ -956,7 +1309,7 @@
         <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>45</v>
@@ -968,7 +1321,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>32</v>
@@ -995,7 +1348,7 @@
         <v>50</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>51</v>
@@ -1004,16 +1357,19 @@
         <v>52</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>89</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,31 +1377,31 @@
         <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>49</v>
@@ -1059,23 +1415,26 @@
       <c r="X4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>51</v>
+      <c r="Y4" t="s">
+        <v>127</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,31 +1442,31 @@
         <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>37</v>
@@ -1121,23 +1480,26 @@
       <c r="X5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>36</v>
+      <c r="Y5" t="s">
+        <v>128</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>83</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1145,34 +1507,34 @@
         <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="V6" s="2">
         <v>1200000</v>
@@ -1181,25 +1543,28 @@
         <v>50</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>131</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>83</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1207,31 +1572,31 @@
         <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>37</v>
@@ -1246,22 +1611,22 @@
         <v>35</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1269,31 +1634,31 @@
         <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>37</v>
@@ -1308,22 +1673,22 @@
         <v>35</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1331,34 +1696,34 @@
         <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="V9" s="2">
         <v>1200000</v>
@@ -1367,7 +1732,7 @@
         <v>50</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>51</v>
@@ -1376,16 +1741,16 @@
         <v>52</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,31 +1758,31 @@
         <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="K10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>49</v>
@@ -1432,19 +1797,19 @@
         <v>35</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,31 +1817,31 @@
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>37</v>
@@ -1491,19 +1856,19 @@
         <v>35</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,34 +1876,34 @@
         <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="V12" s="2">
         <v>1700000</v>
@@ -1547,19 +1912,82 @@
         <v>40</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="N13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1700001</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="N14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1700002</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="N15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1700003</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1570,13 +1998,1813 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="18.28515625" style="1"/>
+    <col min="10" max="10" width="18.28515625" style="3"/>
+    <col min="11" max="15" width="18.28515625" style="1"/>
+    <col min="16" max="16" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="18.28515625" style="1"/>
+    <col min="20" max="21" width="18.28515625" style="3"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="1"/>
+    <col min="24" max="24" width="18.28515625" style="3"/>
+    <col min="25" max="25" width="18.28515625" style="1"/>
+    <col min="26" max="26" width="34" customWidth="1"/>
+    <col min="27" max="29" width="18.28515625" style="3"/>
+    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="75.7109375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="18.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>216</v>
+      </c>
+      <c r="W2" s="2">
+        <v>2307000</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="2">
+        <v>2400000</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" t="s">
+        <v>222</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V5" t="s">
+        <v>216</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" t="s">
+        <v>222</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" t="s">
+        <v>221</v>
+      </c>
+      <c r="V8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" t="s">
+        <v>221</v>
+      </c>
+      <c r="V9" t="s">
+        <v>216</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" t="s">
+        <v>221</v>
+      </c>
+      <c r="V10" t="s">
+        <v>216</v>
+      </c>
+      <c r="W10" s="2">
+        <v>90000</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" t="s">
+        <v>222</v>
+      </c>
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="2">
+        <v>150000</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" t="s">
+        <v>222</v>
+      </c>
+      <c r="V12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="N13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V13" t="s">
+        <v>216</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1700001</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="N14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" t="s">
+        <v>221</v>
+      </c>
+      <c r="V14" t="s">
+        <v>216</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1700002</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="N15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15" t="s">
+        <v>221</v>
+      </c>
+      <c r="V15" t="s">
+        <v>216</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1700003</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="P16" t="s">
+        <v>222</v>
+      </c>
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" s="2">
+        <v>2400000</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="16:31">
+      <c r="P17" t="s">
+        <v>221</v>
+      </c>
+      <c r="V17" t="s">
+        <v>216</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="16:31">
+      <c r="P18" t="s">
+        <v>222</v>
+      </c>
+      <c r="V18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="16:31">
+      <c r="P19" t="s">
+        <v>222</v>
+      </c>
+      <c r="V19" t="s">
+        <v>49</v>
+      </c>
+      <c r="W19" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="16:31">
+      <c r="P20" t="s">
+        <v>223</v>
+      </c>
+      <c r="V20" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="16:31">
+      <c r="P21" t="s">
+        <v>223</v>
+      </c>
+      <c r="V21" t="s">
+        <v>49</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="16:31">
+      <c r="P22" t="s">
+        <v>221</v>
+      </c>
+      <c r="V22" t="s">
+        <v>216</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="16:31">
+      <c r="P23" t="s">
+        <v>221</v>
+      </c>
+      <c r="V23" t="s">
+        <v>216</v>
+      </c>
+      <c r="W23" s="2">
+        <v>90000</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="16:31">
+      <c r="P24" t="s">
+        <v>221</v>
+      </c>
+      <c r="V24" t="s">
+        <v>216</v>
+      </c>
+      <c r="W24" s="2">
+        <v>150000</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="16:31">
+      <c r="P25" t="s">
+        <v>222</v>
+      </c>
+      <c r="V25" t="s">
+        <v>49</v>
+      </c>
+      <c r="W25" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="16:31">
+      <c r="P26" t="s">
+        <v>221</v>
+      </c>
+      <c r="V26" t="s">
+        <v>216</v>
+      </c>
+      <c r="W26" s="2">
+        <v>1700001</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="16:31">
+      <c r="P27" t="s">
+        <v>221</v>
+      </c>
+      <c r="V27" t="s">
+        <v>216</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1700002</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="16:31">
+      <c r="P28" t="s">
+        <v>221</v>
+      </c>
+      <c r="V28" t="s">
+        <v>216</v>
+      </c>
+      <c r="W28" s="2">
+        <v>1700003</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="16:31">
+      <c r="P29" t="s">
+        <v>221</v>
+      </c>
+      <c r="V29" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="16:31">
+      <c r="P30" t="s">
+        <v>221</v>
+      </c>
+      <c r="V30" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="16:31">
+      <c r="P31" t="s">
+        <v>224</v>
+      </c>
+      <c r="V31" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="16:31">
+      <c r="P32" t="s">
+        <v>225</v>
+      </c>
+      <c r="V32" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="16:31">
+      <c r="P33" t="s">
+        <v>221</v>
+      </c>
+      <c r="V33" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="16:31">
+      <c r="P34" t="s">
+        <v>221</v>
+      </c>
+      <c r="V34" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="16:31">
+      <c r="P35" t="s">
+        <v>226</v>
+      </c>
+      <c r="V35" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="16:31">
+      <c r="P36" t="s">
+        <v>226</v>
+      </c>
+      <c r="V36" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="16:31">
+      <c r="P37" t="s">
+        <v>226</v>
+      </c>
+      <c r="V37" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="16:31">
+      <c r="P38" t="s">
+        <v>221</v>
+      </c>
+      <c r="V38" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="16:31">
+      <c r="P39" t="s">
+        <v>221</v>
+      </c>
+      <c r="V39" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="16:31">
+      <c r="P40" t="s">
+        <v>221</v>
+      </c>
+      <c r="V40" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="16:31">
+      <c r="P41" t="s">
+        <v>223</v>
+      </c>
+      <c r="V41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="16:31">
+      <c r="P42" t="s">
+        <v>222</v>
+      </c>
+      <c r="V42" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="16:31">
+      <c r="P43" t="s">
+        <v>221</v>
+      </c>
+      <c r="V43" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="16:31">
+      <c r="P44" t="s">
+        <v>221</v>
+      </c>
+      <c r="V44" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="16:31">
+      <c r="P45" t="s">
+        <v>222</v>
+      </c>
+      <c r="V45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="16:31">
+      <c r="P46" t="s">
+        <v>227</v>
+      </c>
+      <c r="V46" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="16:31">
+      <c r="P47" t="s">
+        <v>221</v>
+      </c>
+      <c r="V47" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="16:31">
+      <c r="P48" t="s">
+        <v>221</v>
+      </c>
+      <c r="V48" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="16:26">
+      <c r="P49" t="s">
+        <v>222</v>
+      </c>
+      <c r="V49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="16:26">
+      <c r="P50" t="s">
+        <v>228</v>
+      </c>
+      <c r="V50" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="16:26">
+      <c r="P51" t="s">
+        <v>222</v>
+      </c>
+      <c r="V51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="16:26">
+      <c r="P52" t="s">
+        <v>222</v>
+      </c>
+      <c r="V52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="16:26">
+      <c r="P53" t="s">
+        <v>221</v>
+      </c>
+      <c r="V53" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="16:26">
+      <c r="P54" t="s">
+        <v>221</v>
+      </c>
+      <c r="V54" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="16:26">
+      <c r="P55" t="s">
+        <v>223</v>
+      </c>
+      <c r="V55" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="16:26">
+      <c r="P56" t="s">
+        <v>224</v>
+      </c>
+      <c r="V56" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z56" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="16:26">
+      <c r="P57" t="s">
+        <v>225</v>
+      </c>
+      <c r="V57" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z57" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="16:26">
+      <c r="P58" t="s">
+        <v>228</v>
+      </c>
+      <c r="V58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="16:26">
+      <c r="P59" t="s">
+        <v>221</v>
+      </c>
+      <c r="V59" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="16:26">
+      <c r="P60" t="s">
+        <v>228</v>
+      </c>
+      <c r="V60" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="16:26">
+      <c r="P61" t="s">
+        <v>229</v>
+      </c>
+      <c r="V61" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="16:26">
+      <c r="P62" t="s">
+        <v>230</v>
+      </c>
+      <c r="V62" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="16:26">
+      <c r="P63" t="s">
+        <v>221</v>
+      </c>
+      <c r="V63" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="16:26">
+      <c r="P64" t="s">
+        <v>223</v>
+      </c>
+      <c r="V64" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="16:26">
+      <c r="P65" t="s">
+        <v>226</v>
+      </c>
+      <c r="V65" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="16:26">
+      <c r="P66" t="s">
+        <v>223</v>
+      </c>
+      <c r="V66" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="16:26">
+      <c r="P67" t="s">
+        <v>222</v>
+      </c>
+      <c r="V67" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="16:26">
+      <c r="P68" t="s">
+        <v>222</v>
+      </c>
+      <c r="V68" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="16:26">
+      <c r="P69" t="s">
+        <v>221</v>
+      </c>
+      <c r="V69" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="16:26">
+      <c r="P70" t="s">
+        <v>231</v>
+      </c>
+      <c r="V70" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z70" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="16:26">
+      <c r="P71" t="s">
+        <v>222</v>
+      </c>
+      <c r="V71" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="16:26">
+      <c r="P72" t="s">
+        <v>232</v>
+      </c>
+      <c r="V72" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z72" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="16:26">
+      <c r="P73" t="s">
+        <v>221</v>
+      </c>
+      <c r="V73" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="16:26">
+      <c r="P74" t="s">
+        <v>221</v>
+      </c>
+      <c r="V74" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="16:26">
+      <c r="P75" t="s">
+        <v>224</v>
+      </c>
+      <c r="V75" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="16:26">
+      <c r="P76" t="s">
+        <v>232</v>
+      </c>
+      <c r="V76" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="16:26">
+      <c r="P77" t="s">
+        <v>222</v>
+      </c>
+      <c r="V77" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="16:26">
+      <c r="P78" t="s">
+        <v>221</v>
+      </c>
+      <c r="V78" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1590,4 +3818,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
+++ b/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="242">
   <si>
     <t>customer</t>
   </si>
@@ -724,14 +724,32 @@
     <t>AAB-6789</t>
   </si>
   <si>
-    <t>BAX-1234</t>
+    <t>BAY-4522</t>
+  </si>
+  <si>
+    <t>AAB-9603</t>
+  </si>
+  <si>
+    <t>AAB-9604</t>
+  </si>
+  <si>
+    <t>BAY-1234</t>
+  </si>
+  <si>
+    <t>BAY-1235</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>Testcase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,8 +772,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,8 +793,13 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -777,11 +807,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -801,9 +847,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1998,1807 +2051,1929 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE78"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="18.28515625" style="1"/>
-    <col min="10" max="10" width="18.28515625" style="3"/>
-    <col min="11" max="15" width="18.28515625" style="1"/>
-    <col min="16" max="16" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="18.28515625" style="1"/>
-    <col min="20" max="21" width="18.28515625" style="3"/>
-    <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="1"/>
-    <col min="24" max="24" width="18.28515625" style="3"/>
-    <col min="25" max="25" width="18.28515625" style="1"/>
-    <col min="26" max="26" width="34" customWidth="1"/>
-    <col min="27" max="29" width="18.28515625" style="3"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="75.7109375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="18.28515625" style="1"/>
+    <col min="1" max="1" width="18.28515625" style="10"/>
+    <col min="2" max="10" width="18.28515625" style="1"/>
+    <col min="11" max="11" width="18.28515625" style="3"/>
+    <col min="12" max="16" width="18.28515625" style="1"/>
+    <col min="17" max="17" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="18.28515625" style="1"/>
+    <col min="21" max="22" width="18.28515625" style="3"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" style="1"/>
+    <col min="25" max="25" width="18.28515625" style="3"/>
+    <col min="26" max="26" width="18.28515625" style="1"/>
+    <col min="27" max="27" width="34" customWidth="1"/>
+    <col min="28" max="30" width="18.28515625" style="3"/>
+    <col min="31" max="31" width="30.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="75.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:32" s="4" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:32">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>221</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="2">
+        <v>2307000</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" customHeight="1">
+      <c r="A3" s="10">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>222</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2400000</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A30" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>222</v>
+      </c>
+      <c r="W4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>221</v>
+      </c>
+      <c r="W5" t="s">
         <v>216</v>
       </c>
-      <c r="W2" s="2">
-        <v>2307000</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="X5" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>222</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>222</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>221</v>
+      </c>
+      <c r="W8" t="s">
+        <v>216</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>221</v>
+      </c>
+      <c r="W9" t="s">
+        <v>216</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W10" t="s">
+        <v>216</v>
+      </c>
+      <c r="X10" s="2">
+        <v>90000</v>
+      </c>
+      <c r="Y10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="30">
-      <c r="A3" s="1" t="s">
+      <c r="AA10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>222</v>
+      </c>
+      <c r="W11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" s="2">
+        <v>150000</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>222</v>
+      </c>
+      <c r="W12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="P13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>221</v>
+      </c>
+      <c r="W13" t="s">
+        <v>216</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1700001</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>221</v>
+      </c>
+      <c r="W14" t="s">
+        <v>216</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1700002</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>221</v>
+      </c>
+      <c r="W15" t="s">
+        <v>216</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1700003</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q16" t="s">
         <v>222</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W16" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X16" s="2">
         <v>2400000</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>221</v>
+      </c>
+      <c r="W17" t="s">
+        <v>216</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>222</v>
+      </c>
+      <c r="W18" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="10">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>222</v>
+      </c>
+      <c r="W19" t="s">
+        <v>49</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>223</v>
+      </c>
+      <c r="W20" t="s">
+        <v>49</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>223</v>
+      </c>
+      <c r="W21" t="s">
+        <v>49</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="30">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>221</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>221</v>
+      </c>
+      <c r="W23" t="s">
+        <v>216</v>
+      </c>
+      <c r="X23" s="2">
+        <v>90000</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>221</v>
+      </c>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" s="2">
+        <v>150000</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q25" t="s">
         <v>222</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W25" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="X25" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q26" t="s">
         <v>221</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W26" t="s">
         <v>216</v>
       </c>
-      <c r="W5" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE5" s="1" t="s">
+      <c r="X26" s="2">
+        <v>1700001</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF26" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P6" t="s">
+    <row r="27" spans="1:32">
+      <c r="A27" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>221</v>
+      </c>
+      <c r="W27" t="s">
+        <v>216</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1700002</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>221</v>
+      </c>
+      <c r="W28" t="s">
+        <v>216</v>
+      </c>
+      <c r="X28" s="2">
+        <v>1700003</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>221</v>
+      </c>
+      <c r="W29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>221</v>
+      </c>
+      <c r="W30" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="Q31" t="s">
+        <v>224</v>
+      </c>
+      <c r="W31" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="Q32" t="s">
+        <v>225</v>
+      </c>
+      <c r="W32" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="17:32">
+      <c r="Q33" t="s">
+        <v>221</v>
+      </c>
+      <c r="W33" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="17:32">
+      <c r="Q34" t="s">
+        <v>221</v>
+      </c>
+      <c r="W34" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="17:32">
+      <c r="Q35" t="s">
+        <v>226</v>
+      </c>
+      <c r="W35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="17:32">
+      <c r="Q36" t="s">
+        <v>226</v>
+      </c>
+      <c r="W36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="17:32">
+      <c r="Q37" t="s">
+        <v>226</v>
+      </c>
+      <c r="W37" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="17:32">
+      <c r="Q38" t="s">
+        <v>221</v>
+      </c>
+      <c r="W38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="17:32">
+      <c r="Q39" t="s">
+        <v>221</v>
+      </c>
+      <c r="W39" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="17:32">
+      <c r="Q40" t="s">
+        <v>221</v>
+      </c>
+      <c r="W40" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="17:32">
+      <c r="Q41" t="s">
+        <v>223</v>
+      </c>
+      <c r="W41" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="17:32">
+      <c r="Q42" t="s">
         <v>222</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W42" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="AA42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="17:32">
+      <c r="Q43" t="s">
+        <v>221</v>
+      </c>
+      <c r="W43" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="17:32">
+      <c r="Q44" t="s">
+        <v>221</v>
+      </c>
+      <c r="W44" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="17:32">
+      <c r="Q45" t="s">
         <v>222</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W45" t="s">
         <v>49</v>
       </c>
-      <c r="W7" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="AA45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="17:32">
+      <c r="Q46" t="s">
+        <v>227</v>
+      </c>
+      <c r="W46" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="17:32">
+      <c r="Q47" t="s">
         <v>221</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W47" t="s">
         <v>216</v>
       </c>
-      <c r="W8" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="AA47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="17:32">
+      <c r="Q48" t="s">
         <v>221</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W48" t="s">
         <v>216</v>
       </c>
-      <c r="W9" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="AA48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="17:27">
+      <c r="Q49" t="s">
+        <v>222</v>
+      </c>
+      <c r="W49" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="17:27">
+      <c r="Q50" t="s">
+        <v>228</v>
+      </c>
+      <c r="W50" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="17:27">
+      <c r="Q51" t="s">
+        <v>222</v>
+      </c>
+      <c r="W51" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="17:27">
+      <c r="Q52" t="s">
+        <v>222</v>
+      </c>
+      <c r="W52" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="17:27">
+      <c r="Q53" t="s">
         <v>221</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W53" t="s">
         <v>216</v>
       </c>
-      <c r="W10" s="2">
-        <v>90000</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="AA53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="17:27">
+      <c r="Q54" t="s">
+        <v>221</v>
+      </c>
+      <c r="W54" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="17:27">
+      <c r="Q55" t="s">
+        <v>223</v>
+      </c>
+      <c r="W55" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="17:27">
+      <c r="Q56" t="s">
+        <v>224</v>
+      </c>
+      <c r="W56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA56" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="17:27">
+      <c r="Q57" t="s">
+        <v>225</v>
+      </c>
+      <c r="W57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="17:27">
+      <c r="Q58" t="s">
+        <v>228</v>
+      </c>
+      <c r="W58" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="17:27">
+      <c r="Q59" t="s">
+        <v>221</v>
+      </c>
+      <c r="W59" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="17:27">
+      <c r="Q60" t="s">
+        <v>228</v>
+      </c>
+      <c r="W60" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="17:27">
+      <c r="Q61" t="s">
+        <v>229</v>
+      </c>
+      <c r="W61" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="17:27">
+      <c r="Q62" t="s">
+        <v>230</v>
+      </c>
+      <c r="W62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="17:27">
+      <c r="Q63" t="s">
+        <v>221</v>
+      </c>
+      <c r="W63" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="17:27">
+      <c r="Q64" t="s">
+        <v>223</v>
+      </c>
+      <c r="W64" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="17:27">
+      <c r="Q65" t="s">
+        <v>226</v>
+      </c>
+      <c r="W65" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="17:27">
+      <c r="Q66" t="s">
+        <v>223</v>
+      </c>
+      <c r="W66" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="17:27">
+      <c r="Q67" t="s">
         <v>222</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W67" t="s">
         <v>49</v>
       </c>
-      <c r="W11" s="2">
-        <v>150000</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="AA67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="17:27">
+      <c r="Q68" t="s">
         <v>222</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W68" t="s">
         <v>49</v>
       </c>
-      <c r="W12" s="2">
-        <v>1700000</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="N13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="AA68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="17:27">
+      <c r="Q69" t="s">
         <v>221</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W69" t="s">
         <v>216</v>
       </c>
-      <c r="W13" s="2">
-        <v>1700001</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="N14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="AA69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="17:27">
+      <c r="Q70" t="s">
+        <v>231</v>
+      </c>
+      <c r="W70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA70" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="17:27">
+      <c r="Q71" t="s">
+        <v>222</v>
+      </c>
+      <c r="W71" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="17:27">
+      <c r="Q72" t="s">
+        <v>232</v>
+      </c>
+      <c r="W72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA72" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="17:27">
+      <c r="Q73" t="s">
         <v>221</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W73" t="s">
         <v>216</v>
       </c>
-      <c r="W14" s="2">
-        <v>1700002</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="N15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="AA73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="17:27">
+      <c r="Q74" t="s">
         <v>221</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W74" t="s">
         <v>216</v>
       </c>
-      <c r="W15" s="2">
-        <v>1700003</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="P16" t="s">
+      <c r="AA74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="17:27">
+      <c r="Q75" t="s">
+        <v>224</v>
+      </c>
+      <c r="W75" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="17:27">
+      <c r="Q76" t="s">
+        <v>232</v>
+      </c>
+      <c r="W76" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="17:27">
+      <c r="Q77" t="s">
         <v>222</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W77" t="s">
         <v>49</v>
       </c>
-      <c r="W16" s="2">
-        <v>2400000</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="16:31">
-      <c r="P17" t="s">
+      <c r="AA77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="17:27">
+      <c r="Q78" t="s">
         <v>221</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W78" t="s">
         <v>216</v>
       </c>
-      <c r="W17" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="16:31">
-      <c r="P18" t="s">
-        <v>222</v>
-      </c>
-      <c r="V18" t="s">
-        <v>49</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="16:31">
-      <c r="P19" t="s">
-        <v>222</v>
-      </c>
-      <c r="V19" t="s">
-        <v>49</v>
-      </c>
-      <c r="W19" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="16:31">
-      <c r="P20" t="s">
-        <v>223</v>
-      </c>
-      <c r="V20" t="s">
-        <v>49</v>
-      </c>
-      <c r="W20" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="16:31">
-      <c r="P21" t="s">
-        <v>223</v>
-      </c>
-      <c r="V21" t="s">
-        <v>49</v>
-      </c>
-      <c r="W21" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="16:31">
-      <c r="P22" t="s">
-        <v>221</v>
-      </c>
-      <c r="V22" t="s">
-        <v>216</v>
-      </c>
-      <c r="W22" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="16:31">
-      <c r="P23" t="s">
-        <v>221</v>
-      </c>
-      <c r="V23" t="s">
-        <v>216</v>
-      </c>
-      <c r="W23" s="2">
-        <v>90000</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="16:31">
-      <c r="P24" t="s">
-        <v>221</v>
-      </c>
-      <c r="V24" t="s">
-        <v>216</v>
-      </c>
-      <c r="W24" s="2">
-        <v>150000</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="16:31">
-      <c r="P25" t="s">
-        <v>222</v>
-      </c>
-      <c r="V25" t="s">
-        <v>49</v>
-      </c>
-      <c r="W25" s="2">
-        <v>1700000</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE25" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="16:31">
-      <c r="P26" t="s">
-        <v>221</v>
-      </c>
-      <c r="V26" t="s">
-        <v>216</v>
-      </c>
-      <c r="W26" s="2">
-        <v>1700001</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="16:31">
-      <c r="P27" t="s">
-        <v>221</v>
-      </c>
-      <c r="V27" t="s">
-        <v>216</v>
-      </c>
-      <c r="W27" s="2">
-        <v>1700002</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="16:31">
-      <c r="P28" t="s">
-        <v>221</v>
-      </c>
-      <c r="V28" t="s">
-        <v>216</v>
-      </c>
-      <c r="W28" s="2">
-        <v>1700003</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="16:31">
-      <c r="P29" t="s">
-        <v>221</v>
-      </c>
-      <c r="V29" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE29" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="16:31">
-      <c r="P30" t="s">
-        <v>221</v>
-      </c>
-      <c r="V30" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="16:31">
-      <c r="P31" t="s">
-        <v>224</v>
-      </c>
-      <c r="V31" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="16:31">
-      <c r="P32" t="s">
-        <v>225</v>
-      </c>
-      <c r="V32" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE32" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="16:31">
-      <c r="P33" t="s">
-        <v>221</v>
-      </c>
-      <c r="V33" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="16:31">
-      <c r="P34" t="s">
-        <v>221</v>
-      </c>
-      <c r="V34" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE34" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="16:31">
-      <c r="P35" t="s">
-        <v>226</v>
-      </c>
-      <c r="V35" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE35" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="16:31">
-      <c r="P36" t="s">
-        <v>226</v>
-      </c>
-      <c r="V36" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="16:31">
-      <c r="P37" t="s">
-        <v>226</v>
-      </c>
-      <c r="V37" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="16:31">
-      <c r="P38" t="s">
-        <v>221</v>
-      </c>
-      <c r="V38" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="16:31">
-      <c r="P39" t="s">
-        <v>221</v>
-      </c>
-      <c r="V39" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="16:31">
-      <c r="P40" t="s">
-        <v>221</v>
-      </c>
-      <c r="V40" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="16:31">
-      <c r="P41" t="s">
-        <v>223</v>
-      </c>
-      <c r="V41" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="16:31">
-      <c r="P42" t="s">
-        <v>222</v>
-      </c>
-      <c r="V42" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="16:31">
-      <c r="P43" t="s">
-        <v>221</v>
-      </c>
-      <c r="V43" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="16:31">
-      <c r="P44" t="s">
-        <v>221</v>
-      </c>
-      <c r="V44" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="16:31">
-      <c r="P45" t="s">
-        <v>222</v>
-      </c>
-      <c r="V45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="16:31">
-      <c r="P46" t="s">
-        <v>227</v>
-      </c>
-      <c r="V46" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="16:31">
-      <c r="P47" t="s">
-        <v>221</v>
-      </c>
-      <c r="V47" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="16:31">
-      <c r="P48" t="s">
-        <v>221</v>
-      </c>
-      <c r="V48" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="16:26">
-      <c r="P49" t="s">
-        <v>222</v>
-      </c>
-      <c r="V49" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="16:26">
-      <c r="P50" t="s">
-        <v>228</v>
-      </c>
-      <c r="V50" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="16:26">
-      <c r="P51" t="s">
-        <v>222</v>
-      </c>
-      <c r="V51" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="16:26">
-      <c r="P52" t="s">
-        <v>222</v>
-      </c>
-      <c r="V52" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="16:26">
-      <c r="P53" t="s">
-        <v>221</v>
-      </c>
-      <c r="V53" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="16:26">
-      <c r="P54" t="s">
-        <v>221</v>
-      </c>
-      <c r="V54" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="16:26">
-      <c r="P55" t="s">
-        <v>223</v>
-      </c>
-      <c r="V55" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="16:26">
-      <c r="P56" t="s">
-        <v>224</v>
-      </c>
-      <c r="V56" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z56" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="16:26">
-      <c r="P57" t="s">
-        <v>225</v>
-      </c>
-      <c r="V57" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z57" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="16:26">
-      <c r="P58" t="s">
-        <v>228</v>
-      </c>
-      <c r="V58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="16:26">
-      <c r="P59" t="s">
-        <v>221</v>
-      </c>
-      <c r="V59" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="60" spans="16:26">
-      <c r="P60" t="s">
-        <v>228</v>
-      </c>
-      <c r="V60" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="16:26">
-      <c r="P61" t="s">
-        <v>229</v>
-      </c>
-      <c r="V61" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="16:26">
-      <c r="P62" t="s">
-        <v>230</v>
-      </c>
-      <c r="V62" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="16:26">
-      <c r="P63" t="s">
-        <v>221</v>
-      </c>
-      <c r="V63" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="16:26">
-      <c r="P64" t="s">
-        <v>223</v>
-      </c>
-      <c r="V64" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="16:26">
-      <c r="P65" t="s">
-        <v>226</v>
-      </c>
-      <c r="V65" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="16:26">
-      <c r="P66" t="s">
-        <v>223</v>
-      </c>
-      <c r="V66" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="16:26">
-      <c r="P67" t="s">
-        <v>222</v>
-      </c>
-      <c r="V67" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="16:26">
-      <c r="P68" t="s">
-        <v>222</v>
-      </c>
-      <c r="V68" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="16:26">
-      <c r="P69" t="s">
-        <v>221</v>
-      </c>
-      <c r="V69" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="16:26">
-      <c r="P70" t="s">
-        <v>231</v>
-      </c>
-      <c r="V70" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z70" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="16:26">
-      <c r="P71" t="s">
-        <v>222</v>
-      </c>
-      <c r="V71" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="16:26">
-      <c r="P72" t="s">
-        <v>232</v>
-      </c>
-      <c r="V72" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z72" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="16:26">
-      <c r="P73" t="s">
-        <v>221</v>
-      </c>
-      <c r="V73" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="16:26">
-      <c r="P74" t="s">
-        <v>221</v>
-      </c>
-      <c r="V74" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="16:26">
-      <c r="P75" t="s">
-        <v>224</v>
-      </c>
-      <c r="V75" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="16:26">
-      <c r="P76" t="s">
-        <v>232</v>
-      </c>
-      <c r="V76" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="16:26">
-      <c r="P77" t="s">
-        <v>222</v>
-      </c>
-      <c r="V77" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="16:26">
-      <c r="P78" t="s">
-        <v>221</v>
-      </c>
-      <c r="V78" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>215</v>
       </c>
     </row>

--- a/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
+++ b/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="243">
   <si>
     <t>customer</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>Testcase</t>
+  </si>
+  <si>
+    <t>terrorism,pab,towing,learner_driver</t>
   </si>
 </sst>
 </file>
@@ -2053,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
@@ -2345,7 +2348,7 @@
         <v>89</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:32">

--- a/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
+++ b/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="244">
   <si>
     <t>customer</t>
   </si>
@@ -463,9 +463,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>A.M. Motor Trading MC</t>
-  </si>
-  <si>
     <t>Abans Finanace  2W</t>
   </si>
   <si>
@@ -746,6 +743,12 @@
   </si>
   <si>
     <t>terrorism,pab,towing,learner_driver</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test_city</t>
   </si>
 </sst>
 </file>
@@ -2054,35 +2057,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="10"/>
-    <col min="2" max="10" width="18.28515625" style="1"/>
-    <col min="11" max="11" width="18.28515625" style="3"/>
-    <col min="12" max="16" width="18.28515625" style="1"/>
-    <col min="17" max="17" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="18.28515625" style="1"/>
-    <col min="21" max="22" width="18.28515625" style="3"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" style="1"/>
-    <col min="25" max="25" width="18.28515625" style="3"/>
-    <col min="26" max="26" width="18.28515625" style="1"/>
-    <col min="27" max="27" width="34" customWidth="1"/>
-    <col min="28" max="30" width="18.28515625" style="3"/>
-    <col min="31" max="31" width="30.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="75.7109375" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="18.28515625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="10" customWidth="1"/>
+    <col min="2" max="8" width="18.28515625" style="1"/>
+    <col min="9" max="9" width="18.28515625" style="3"/>
+    <col min="10" max="14" width="18.28515625" style="1"/>
+    <col min="15" max="15" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="1"/>
+    <col min="18" max="18" width="18.28515625" style="3"/>
+    <col min="19" max="19" width="18.28515625" style="1"/>
+    <col min="20" max="20" width="34" customWidth="1"/>
+    <col min="21" max="23" width="18.28515625" style="3"/>
+    <col min="24" max="24" width="75.7109375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1">
+    <row r="1" spans="1:24" s="4" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2091,94 +2091,70 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>19</v>
+      <c r="O1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF1" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:24">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2188,83 +2164,71 @@
       <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>221</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
+      <c r="N2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2307000</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>128</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="2">
-        <v>2307000</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
@@ -2275,83 +2239,71 @@
       <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>222</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>32</v>
+      <c r="N3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2400000</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>128</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="2">
-        <v>2400000</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="X3" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="10">
         <f t="shared" ref="A4:A30" si="0">A3+1</f>
         <v>3</v>
@@ -2362,68 +2314,71 @@
       <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>148</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="Q4" t="s">
-        <v>222</v>
-      </c>
-      <c r="W4" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:24">
       <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2434,68 +2389,71 @@
       <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q5" t="s">
-        <v>221</v>
-      </c>
-      <c r="W5" t="s">
-        <v>216</v>
-      </c>
-      <c r="X5" s="2">
+      <c r="O5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q5" s="2">
         <v>1200000</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB5" s="3" t="s">
+      <c r="T5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD5" s="3" t="s">
+      <c r="V5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:24">
       <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2506,68 +2464,71 @@
       <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q6" t="s">
-        <v>222</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="O6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P6" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Q6" s="2">
         <v>1200000</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB6" s="3" t="s">
+      <c r="T6" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD6" s="3" t="s">
+      <c r="V6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:24">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2578,68 +2539,71 @@
       <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>222</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="N7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Q7" s="2">
         <v>1200000</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB7" s="3" t="s">
+      <c r="T7" t="s">
+        <v>151</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD7" s="3" t="s">
+      <c r="V7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:24">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2650,68 +2614,71 @@
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q8" t="s">
-        <v>221</v>
-      </c>
-      <c r="W8" t="s">
-        <v>216</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="O8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q8" s="2">
         <v>1200000</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB8" s="3" t="s">
+      <c r="T8" t="s">
+        <v>152</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD8" s="3" t="s">
+      <c r="V8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:24">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2722,68 +2689,71 @@
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>221</v>
-      </c>
-      <c r="W9" t="s">
-        <v>216</v>
-      </c>
-      <c r="X9" s="2">
+      <c r="N9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O9" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="2">
         <v>1200000</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="T9" t="s">
         <v>142</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD9" s="3" t="s">
+      <c r="V9" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:24">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2794,65 +2764,71 @@
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W10" t="s">
-        <v>216</v>
-      </c>
-      <c r="X10" s="2">
+      <c r="N10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O10" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q10" s="2">
         <v>90000</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="T10" t="s">
         <v>143</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD10" s="3" t="s">
+      <c r="V10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:24">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2863,65 +2839,71 @@
       <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q11" t="s">
-        <v>222</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="O11" t="s">
+        <v>221</v>
+      </c>
+      <c r="P11" t="s">
         <v>49</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Q11" s="2">
         <v>150000</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB11" s="3" t="s">
+      <c r="T11" t="s">
+        <v>153</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC11" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD11" s="3" t="s">
+      <c r="V11" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:24">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2932,1052 +2914,1055 @@
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Q12" t="s">
-        <v>222</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="O12" t="s">
+        <v>221</v>
+      </c>
+      <c r="P12" t="s">
         <v>49</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Q12" s="2">
         <v>1700000</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="T12" t="s">
         <v>131</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD12" s="3" t="s">
+      <c r="V12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:24">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q13" t="s">
-        <v>221</v>
-      </c>
-      <c r="W13" t="s">
-        <v>216</v>
-      </c>
-      <c r="X13" s="2">
+      <c r="O13" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" s="2">
         <v>1700001</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF13" s="1" t="s">
+      <c r="T13" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:24">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q14" t="s">
-        <v>221</v>
-      </c>
-      <c r="W14" t="s">
-        <v>216</v>
-      </c>
-      <c r="X14" s="2">
+      <c r="O14" t="s">
+        <v>220</v>
+      </c>
+      <c r="P14" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q14" s="2">
         <v>1700002</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF14" s="1" t="s">
+      <c r="T14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:24">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q15" t="s">
-        <v>221</v>
-      </c>
-      <c r="W15" t="s">
-        <v>216</v>
-      </c>
-      <c r="X15" s="2">
+      <c r="O15" t="s">
+        <v>220</v>
+      </c>
+      <c r="P15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q15" s="2">
         <v>1700003</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF15" s="1" t="s">
+      <c r="T15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:24">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q16" t="s">
-        <v>222</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="O16" t="s">
+        <v>221</v>
+      </c>
+      <c r="P16" t="s">
         <v>49</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Q16" s="2">
         <v>2400000</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF16" s="1" t="s">
+      <c r="T16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:24">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q17" t="s">
-        <v>221</v>
-      </c>
-      <c r="W17" t="s">
-        <v>216</v>
-      </c>
-      <c r="X17" s="2">
+      <c r="O17" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="2">
         <v>1000000</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF17" s="1" t="s">
+      <c r="T17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:24">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Q18" t="s">
-        <v>222</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="O18" t="s">
+        <v>221</v>
+      </c>
+      <c r="P18" t="s">
         <v>49</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Q18" s="2">
         <v>1200000</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA18" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF18" s="1" t="s">
+      <c r="T18" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:24">
       <c r="A19" s="10">
         <f>A18+1</f>
         <v>18</v>
       </c>
-      <c r="Q19" t="s">
-        <v>222</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="O19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" t="s">
         <v>49</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Q19" s="2">
         <v>1200000</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA19" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF19" s="1" t="s">
+      <c r="T19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:24">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Q20" t="s">
-        <v>223</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="O20" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" t="s">
         <v>49</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Q20" s="2">
         <v>1200000</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="T20" t="s">
         <v>127</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:24">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q21" t="s">
-        <v>223</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="O21" t="s">
+        <v>222</v>
+      </c>
+      <c r="P21" t="s">
         <v>49</v>
       </c>
-      <c r="X21" s="2">
+      <c r="Q21" s="2">
         <v>1200000</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF21" s="1" t="s">
+      <c r="T21" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="30">
+    <row r="22" spans="1:24">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q22" t="s">
-        <v>221</v>
+      <c r="O22" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1200000</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="W22" t="s">
-        <v>216</v>
-      </c>
-      <c r="X22" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="Z22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA22" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF22" s="1" t="s">
+      <c r="T22" t="s">
+        <v>162</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:24">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Q23" t="s">
-        <v>221</v>
-      </c>
-      <c r="W23" t="s">
-        <v>216</v>
-      </c>
-      <c r="X23" s="2">
+      <c r="O23" t="s">
+        <v>220</v>
+      </c>
+      <c r="P23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q23" s="2">
         <v>90000</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF23" s="1" t="s">
+      <c r="T23" t="s">
+        <v>163</v>
+      </c>
+      <c r="X23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:24">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Q24" t="s">
-        <v>221</v>
-      </c>
-      <c r="W24" t="s">
-        <v>216</v>
-      </c>
-      <c r="X24" s="2">
+      <c r="O24" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q24" s="2">
         <v>150000</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA24" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF24" s="1" t="s">
+      <c r="T24" t="s">
+        <v>164</v>
+      </c>
+      <c r="X24" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:24">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Q25" t="s">
-        <v>222</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="O25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P25" t="s">
         <v>49</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Q25" s="2">
         <v>1700000</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA25" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF25" s="1" t="s">
+      <c r="T25" t="s">
+        <v>165</v>
+      </c>
+      <c r="X25" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:24">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Q26" t="s">
-        <v>221</v>
-      </c>
-      <c r="W26" t="s">
-        <v>216</v>
-      </c>
-      <c r="X26" s="2">
+      <c r="O26" t="s">
+        <v>220</v>
+      </c>
+      <c r="P26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" s="2">
         <v>1700001</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA26" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF26" s="1" t="s">
+      <c r="T26" t="s">
+        <v>166</v>
+      </c>
+      <c r="X26" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:24">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="Q27" t="s">
-        <v>221</v>
-      </c>
-      <c r="W27" t="s">
-        <v>216</v>
-      </c>
-      <c r="X27" s="2">
+      <c r="O27" t="s">
+        <v>220</v>
+      </c>
+      <c r="P27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q27" s="2">
         <v>1700002</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF27" s="1" t="s">
+      <c r="T27" t="s">
+        <v>167</v>
+      </c>
+      <c r="X27" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:24">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="Q28" t="s">
-        <v>221</v>
-      </c>
-      <c r="W28" t="s">
-        <v>216</v>
-      </c>
-      <c r="X28" s="2">
+      <c r="O28" t="s">
+        <v>220</v>
+      </c>
+      <c r="P28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q28" s="2">
         <v>1700003</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="T28" t="s">
         <v>144</v>
       </c>
-      <c r="AF28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:24">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="Q29" t="s">
-        <v>221</v>
-      </c>
-      <c r="W29" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF29" s="1" t="s">
+      <c r="O29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P29" t="s">
+        <v>215</v>
+      </c>
+      <c r="T29" t="s">
+        <v>168</v>
+      </c>
+      <c r="X29" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:24">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="O30" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" t="s">
+        <v>215</v>
+      </c>
+      <c r="T30" t="s">
+        <v>169</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="O31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P31" t="s">
+        <v>215</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="O32" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" t="s">
+        <v>215</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="15:24">
+      <c r="O33" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" t="s">
+        <v>215</v>
+      </c>
+      <c r="T33" t="s">
+        <v>171</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="15:24">
+      <c r="O34" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" t="s">
+        <v>215</v>
+      </c>
+      <c r="T34" t="s">
+        <v>172</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="15:24">
+      <c r="O35" t="s">
+        <v>225</v>
+      </c>
+      <c r="P35" t="s">
+        <v>216</v>
+      </c>
+      <c r="T35" t="s">
+        <v>173</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="15:24">
+      <c r="O36" t="s">
+        <v>225</v>
+      </c>
+      <c r="P36" t="s">
+        <v>216</v>
+      </c>
+      <c r="T36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="15:24">
+      <c r="O37" t="s">
+        <v>225</v>
+      </c>
+      <c r="P37" t="s">
+        <v>216</v>
+      </c>
+      <c r="T37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="15:24">
+      <c r="O38" t="s">
+        <v>220</v>
+      </c>
+      <c r="P38" t="s">
+        <v>215</v>
+      </c>
+      <c r="T38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="15:24">
+      <c r="O39" t="s">
+        <v>220</v>
+      </c>
+      <c r="P39" t="s">
+        <v>215</v>
+      </c>
+      <c r="T39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="15:24">
+      <c r="O40" t="s">
+        <v>220</v>
+      </c>
+      <c r="P40" t="s">
+        <v>215</v>
+      </c>
+      <c r="T40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="15:24">
+      <c r="O41" t="s">
+        <v>222</v>
+      </c>
+      <c r="P41" t="s">
+        <v>49</v>
+      </c>
+      <c r="T41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="15:24">
+      <c r="O42" t="s">
         <v>221</v>
       </c>
-      <c r="W30" t="s">
+      <c r="P42" t="s">
+        <v>49</v>
+      </c>
+      <c r="T42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="15:24">
+      <c r="O43" t="s">
+        <v>220</v>
+      </c>
+      <c r="P43" t="s">
+        <v>215</v>
+      </c>
+      <c r="T43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="15:24">
+      <c r="O44" t="s">
+        <v>220</v>
+      </c>
+      <c r="P44" t="s">
+        <v>215</v>
+      </c>
+      <c r="T44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="15:24">
+      <c r="O45" t="s">
+        <v>221</v>
+      </c>
+      <c r="P45" t="s">
+        <v>49</v>
+      </c>
+      <c r="T45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="15:24">
+      <c r="O46" t="s">
+        <v>226</v>
+      </c>
+      <c r="P46" t="s">
+        <v>217</v>
+      </c>
+      <c r="T46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="15:24">
+      <c r="O47" t="s">
+        <v>220</v>
+      </c>
+      <c r="P47" t="s">
+        <v>215</v>
+      </c>
+      <c r="T47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="15:24">
+      <c r="O48" t="s">
+        <v>220</v>
+      </c>
+      <c r="P48" t="s">
+        <v>215</v>
+      </c>
+      <c r="T48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="15:20">
+      <c r="O49" t="s">
+        <v>221</v>
+      </c>
+      <c r="P49" t="s">
+        <v>49</v>
+      </c>
+      <c r="T49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="15:20">
+      <c r="O50" t="s">
+        <v>227</v>
+      </c>
+      <c r="P50" t="s">
+        <v>49</v>
+      </c>
+      <c r="T50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="15:20">
+      <c r="O51" t="s">
+        <v>221</v>
+      </c>
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+      <c r="T51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="15:20">
+      <c r="O52" t="s">
+        <v>221</v>
+      </c>
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+      <c r="T52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="15:20">
+      <c r="O53" t="s">
+        <v>220</v>
+      </c>
+      <c r="P53" t="s">
+        <v>215</v>
+      </c>
+      <c r="T53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="15:20">
+      <c r="O54" t="s">
+        <v>220</v>
+      </c>
+      <c r="P54" t="s">
+        <v>215</v>
+      </c>
+      <c r="T54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="15:20">
+      <c r="O55" t="s">
+        <v>222</v>
+      </c>
+      <c r="P55" t="s">
+        <v>218</v>
+      </c>
+      <c r="T55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="15:20">
+      <c r="O56" t="s">
+        <v>223</v>
+      </c>
+      <c r="P56" t="s">
+        <v>49</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="15:20">
+      <c r="O57" t="s">
+        <v>224</v>
+      </c>
+      <c r="P57" t="s">
+        <v>49</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="15:20">
+      <c r="O58" t="s">
+        <v>227</v>
+      </c>
+      <c r="P58" t="s">
+        <v>49</v>
+      </c>
+      <c r="T58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="15:20">
+      <c r="O59" t="s">
+        <v>220</v>
+      </c>
+      <c r="P59" t="s">
+        <v>215</v>
+      </c>
+      <c r="T59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="15:20">
+      <c r="O60" t="s">
+        <v>227</v>
+      </c>
+      <c r="P60" t="s">
+        <v>49</v>
+      </c>
+      <c r="T60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="15:20">
+      <c r="O61" t="s">
+        <v>228</v>
+      </c>
+      <c r="P61" t="s">
+        <v>215</v>
+      </c>
+      <c r="T61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="15:20">
+      <c r="O62" t="s">
+        <v>229</v>
+      </c>
+      <c r="P62" t="s">
+        <v>215</v>
+      </c>
+      <c r="T62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="15:20">
+      <c r="O63" t="s">
+        <v>220</v>
+      </c>
+      <c r="P63" t="s">
+        <v>215</v>
+      </c>
+      <c r="T63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="15:20">
+      <c r="O64" t="s">
+        <v>222</v>
+      </c>
+      <c r="P64" t="s">
+        <v>217</v>
+      </c>
+      <c r="T64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="15:20">
+      <c r="O65" t="s">
+        <v>225</v>
+      </c>
+      <c r="P65" t="s">
         <v>216</v>
       </c>
-      <c r="AA30" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32">
-      <c r="Q31" t="s">
-        <v>224</v>
-      </c>
-      <c r="W31" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32">
-      <c r="Q32" t="s">
-        <v>225</v>
-      </c>
-      <c r="W32" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF32" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="17:32">
-      <c r="Q33" t="s">
+      <c r="T65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="15:20">
+      <c r="O66" t="s">
+        <v>222</v>
+      </c>
+      <c r="P66" t="s">
+        <v>219</v>
+      </c>
+      <c r="T66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="15:20">
+      <c r="O67" t="s">
         <v>221</v>
       </c>
-      <c r="W33" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="17:32">
-      <c r="Q34" t="s">
+      <c r="P67" t="s">
+        <v>49</v>
+      </c>
+      <c r="T67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="15:20">
+      <c r="O68" t="s">
         <v>221</v>
       </c>
-      <c r="W34" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF34" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="17:32">
-      <c r="Q35" t="s">
-        <v>226</v>
-      </c>
-      <c r="W35" t="s">
+      <c r="P68" t="s">
+        <v>49</v>
+      </c>
+      <c r="T68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="15:20">
+      <c r="O69" t="s">
+        <v>220</v>
+      </c>
+      <c r="P69" t="s">
+        <v>215</v>
+      </c>
+      <c r="T69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="15:20">
+      <c r="O70" t="s">
+        <v>230</v>
+      </c>
+      <c r="P70" t="s">
         <v>217</v>
       </c>
-      <c r="AA35" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF35" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="17:32">
-      <c r="Q36" t="s">
-        <v>226</v>
-      </c>
-      <c r="W36" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="17:32">
-      <c r="Q37" t="s">
-        <v>226</v>
-      </c>
-      <c r="W37" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="17:32">
-      <c r="Q38" t="s">
+      <c r="T70" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="15:20">
+      <c r="O71" t="s">
         <v>221</v>
       </c>
-      <c r="W38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="17:32">
-      <c r="Q39" t="s">
+      <c r="P71" t="s">
+        <v>49</v>
+      </c>
+      <c r="T71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="15:20">
+      <c r="O72" t="s">
+        <v>231</v>
+      </c>
+      <c r="P72" t="s">
+        <v>219</v>
+      </c>
+      <c r="T72" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="15:20">
+      <c r="O73" t="s">
+        <v>220</v>
+      </c>
+      <c r="P73" t="s">
+        <v>215</v>
+      </c>
+      <c r="T73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="15:20">
+      <c r="O74" t="s">
+        <v>220</v>
+      </c>
+      <c r="P74" t="s">
+        <v>215</v>
+      </c>
+      <c r="T74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="15:20">
+      <c r="O75" t="s">
+        <v>223</v>
+      </c>
+      <c r="P75" t="s">
+        <v>215</v>
+      </c>
+      <c r="T75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="15:20">
+      <c r="O76" t="s">
+        <v>231</v>
+      </c>
+      <c r="P76" t="s">
+        <v>215</v>
+      </c>
+      <c r="T76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="15:20">
+      <c r="O77" t="s">
         <v>221</v>
       </c>
-      <c r="W39" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="17:32">
-      <c r="Q40" t="s">
-        <v>221</v>
-      </c>
-      <c r="W40" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="17:32">
-      <c r="Q41" t="s">
-        <v>223</v>
-      </c>
-      <c r="W41" t="s">
+      <c r="P77" t="s">
         <v>49</v>
       </c>
-      <c r="AA41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="17:32">
-      <c r="Q42" t="s">
-        <v>222</v>
-      </c>
-      <c r="W42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="17:32">
-      <c r="Q43" t="s">
-        <v>221</v>
-      </c>
-      <c r="W43" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="17:32">
-      <c r="Q44" t="s">
-        <v>221</v>
-      </c>
-      <c r="W44" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="17:32">
-      <c r="Q45" t="s">
-        <v>222</v>
-      </c>
-      <c r="W45" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="17:32">
-      <c r="Q46" t="s">
-        <v>227</v>
-      </c>
-      <c r="W46" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="17:32">
-      <c r="Q47" t="s">
-        <v>221</v>
-      </c>
-      <c r="W47" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="17:32">
-      <c r="Q48" t="s">
-        <v>221</v>
-      </c>
-      <c r="W48" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="17:27">
-      <c r="Q49" t="s">
-        <v>222</v>
-      </c>
-      <c r="W49" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="17:27">
-      <c r="Q50" t="s">
-        <v>228</v>
-      </c>
-      <c r="W50" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="17:27">
-      <c r="Q51" t="s">
-        <v>222</v>
-      </c>
-      <c r="W51" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="17:27">
-      <c r="Q52" t="s">
-        <v>222</v>
-      </c>
-      <c r="W52" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="17:27">
-      <c r="Q53" t="s">
-        <v>221</v>
-      </c>
-      <c r="W53" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="17:27">
-      <c r="Q54" t="s">
-        <v>221</v>
-      </c>
-      <c r="W54" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="17:27">
-      <c r="Q55" t="s">
-        <v>223</v>
-      </c>
-      <c r="W55" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="17:27">
-      <c r="Q56" t="s">
-        <v>224</v>
-      </c>
-      <c r="W56" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA56" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="17:27">
-      <c r="Q57" t="s">
-        <v>225</v>
-      </c>
-      <c r="W57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA57" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="17:27">
-      <c r="Q58" t="s">
-        <v>228</v>
-      </c>
-      <c r="W58" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="17:27">
-      <c r="Q59" t="s">
-        <v>221</v>
-      </c>
-      <c r="W59" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="60" spans="17:27">
-      <c r="Q60" t="s">
-        <v>228</v>
-      </c>
-      <c r="W60" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="17:27">
-      <c r="Q61" t="s">
-        <v>229</v>
-      </c>
-      <c r="W61" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="17:27">
-      <c r="Q62" t="s">
-        <v>230</v>
-      </c>
-      <c r="W62" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="17:27">
-      <c r="Q63" t="s">
-        <v>221</v>
-      </c>
-      <c r="W63" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="17:27">
-      <c r="Q64" t="s">
-        <v>223</v>
-      </c>
-      <c r="W64" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="17:27">
-      <c r="Q65" t="s">
-        <v>226</v>
-      </c>
-      <c r="W65" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="17:27">
-      <c r="Q66" t="s">
-        <v>223</v>
-      </c>
-      <c r="W66" t="s">
+      <c r="T77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="15:20">
+      <c r="O78" t="s">
         <v>220</v>
       </c>
-      <c r="AA66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="17:27">
-      <c r="Q67" t="s">
-        <v>222</v>
-      </c>
-      <c r="W67" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="17:27">
-      <c r="Q68" t="s">
-        <v>222</v>
-      </c>
-      <c r="W68" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="17:27">
-      <c r="Q69" t="s">
-        <v>221</v>
-      </c>
-      <c r="W69" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="17:27">
-      <c r="Q70" t="s">
-        <v>231</v>
-      </c>
-      <c r="W70" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA70" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="17:27">
-      <c r="Q71" t="s">
-        <v>222</v>
-      </c>
-      <c r="W71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="17:27">
-      <c r="Q72" t="s">
-        <v>232</v>
-      </c>
-      <c r="W72" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA72" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="17:27">
-      <c r="Q73" t="s">
-        <v>221</v>
-      </c>
-      <c r="W73" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="17:27">
-      <c r="Q74" t="s">
-        <v>221</v>
-      </c>
-      <c r="W74" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="17:27">
-      <c r="Q75" t="s">
-        <v>224</v>
-      </c>
-      <c r="W75" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="17:27">
-      <c r="Q76" t="s">
-        <v>232</v>
-      </c>
-      <c r="W76" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="17:27">
-      <c r="Q77" t="s">
-        <v>222</v>
-      </c>
-      <c r="W77" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA77" t="s">
+      <c r="P78" t="s">
+        <v>215</v>
+      </c>
+      <c r="T78" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="17:27">
-      <c r="Q78" t="s">
-        <v>221</v>
-      </c>
-      <c r="W78" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
+++ b/src/main/java/lk/allianz/emotor/resources/test_data_sheet.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="1 (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="244">
   <si>
     <t>customer</t>
   </si>
@@ -833,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -857,6 +858,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2059,13 +2066,1929 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="10" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="34" customWidth="1"/>
+    <col min="21" max="23" width="9.140625" style="3"/>
+    <col min="24" max="24" width="75.7109375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="45">
+      <c r="A1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="30">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2307000</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1">
+      <c r="A3" s="10">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2400000</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30">
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A30" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>148</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30">
+      <c r="A5" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="30">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="30">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>151</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="30">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
+        <v>152</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="30">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O9" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s">
+        <v>142</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="30">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O10" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>90000</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" t="s">
+        <v>143</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="30">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" t="s">
+        <v>221</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>150000</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" t="s">
+        <v>153</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="30">
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>221</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s">
+        <v>131</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="30">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1700001</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="30">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>220</v>
+      </c>
+      <c r="P14" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1700002</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="30">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>220</v>
+      </c>
+      <c r="P15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1700003</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="30">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O16" t="s">
+        <v>221</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2400000</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
+        <v>221</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="30">
+      <c r="A19" s="10">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="O20" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" t="s">
+        <v>127</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>222</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="30">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" t="s">
+        <v>162</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>220</v>
+      </c>
+      <c r="P23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>90000</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" t="s">
+        <v>163</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="O24" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>150000</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" t="s">
+        <v>164</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="30">
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s">
+        <v>165</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="30">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O26" t="s">
+        <v>220</v>
+      </c>
+      <c r="P26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1700001</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" t="s">
+        <v>166</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="30">
+      <c r="A27" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>220</v>
+      </c>
+      <c r="P27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1700002</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27" t="s">
+        <v>167</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>220</v>
+      </c>
+      <c r="P28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1700003</v>
+      </c>
+      <c r="T28" t="s">
+        <v>144</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P29" t="s">
+        <v>215</v>
+      </c>
+      <c r="T29" t="s">
+        <v>168</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O30" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" t="s">
+        <v>215</v>
+      </c>
+      <c r="T30" t="s">
+        <v>169</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="O31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P31" t="s">
+        <v>215</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="O32" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" t="s">
+        <v>215</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="15:24">
+      <c r="O33" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" t="s">
+        <v>215</v>
+      </c>
+      <c r="T33" t="s">
+        <v>171</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="15:24">
+      <c r="O34" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" t="s">
+        <v>215</v>
+      </c>
+      <c r="T34" t="s">
+        <v>172</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="15:24">
+      <c r="O35" t="s">
+        <v>225</v>
+      </c>
+      <c r="P35" t="s">
+        <v>216</v>
+      </c>
+      <c r="T35" t="s">
+        <v>173</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="15:24">
+      <c r="O36" t="s">
+        <v>225</v>
+      </c>
+      <c r="P36" t="s">
+        <v>216</v>
+      </c>
+      <c r="T36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="15:24">
+      <c r="O37" t="s">
+        <v>225</v>
+      </c>
+      <c r="P37" t="s">
+        <v>216</v>
+      </c>
+      <c r="T37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="15:24">
+      <c r="O38" t="s">
+        <v>220</v>
+      </c>
+      <c r="P38" t="s">
+        <v>215</v>
+      </c>
+      <c r="T38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="15:24">
+      <c r="O39" t="s">
+        <v>220</v>
+      </c>
+      <c r="P39" t="s">
+        <v>215</v>
+      </c>
+      <c r="T39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="15:24">
+      <c r="O40" t="s">
+        <v>220</v>
+      </c>
+      <c r="P40" t="s">
+        <v>215</v>
+      </c>
+      <c r="T40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="15:24">
+      <c r="O41" t="s">
+        <v>222</v>
+      </c>
+      <c r="P41" t="s">
+        <v>49</v>
+      </c>
+      <c r="T41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="15:24">
+      <c r="O42" t="s">
+        <v>221</v>
+      </c>
+      <c r="P42" t="s">
+        <v>49</v>
+      </c>
+      <c r="T42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="15:24">
+      <c r="O43" t="s">
+        <v>220</v>
+      </c>
+      <c r="P43" t="s">
+        <v>215</v>
+      </c>
+      <c r="T43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="15:24">
+      <c r="O44" t="s">
+        <v>220</v>
+      </c>
+      <c r="P44" t="s">
+        <v>215</v>
+      </c>
+      <c r="T44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="15:24">
+      <c r="O45" t="s">
+        <v>221</v>
+      </c>
+      <c r="P45" t="s">
+        <v>49</v>
+      </c>
+      <c r="T45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="15:24">
+      <c r="O46" t="s">
+        <v>226</v>
+      </c>
+      <c r="P46" t="s">
+        <v>217</v>
+      </c>
+      <c r="T46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="15:24">
+      <c r="O47" t="s">
+        <v>220</v>
+      </c>
+      <c r="P47" t="s">
+        <v>215</v>
+      </c>
+      <c r="T47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="15:24">
+      <c r="O48" t="s">
+        <v>220</v>
+      </c>
+      <c r="P48" t="s">
+        <v>215</v>
+      </c>
+      <c r="T48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="15:20">
+      <c r="O49" t="s">
+        <v>221</v>
+      </c>
+      <c r="P49" t="s">
+        <v>49</v>
+      </c>
+      <c r="T49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="15:20">
+      <c r="O50" t="s">
+        <v>227</v>
+      </c>
+      <c r="P50" t="s">
+        <v>49</v>
+      </c>
+      <c r="T50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="15:20">
+      <c r="O51" t="s">
+        <v>221</v>
+      </c>
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+      <c r="T51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="15:20">
+      <c r="O52" t="s">
+        <v>221</v>
+      </c>
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+      <c r="T52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="15:20">
+      <c r="O53" t="s">
+        <v>220</v>
+      </c>
+      <c r="P53" t="s">
+        <v>215</v>
+      </c>
+      <c r="T53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="15:20">
+      <c r="O54" t="s">
+        <v>220</v>
+      </c>
+      <c r="P54" t="s">
+        <v>215</v>
+      </c>
+      <c r="T54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="15:20">
+      <c r="O55" t="s">
+        <v>222</v>
+      </c>
+      <c r="P55" t="s">
+        <v>218</v>
+      </c>
+      <c r="T55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="15:20">
+      <c r="O56" t="s">
+        <v>223</v>
+      </c>
+      <c r="P56" t="s">
+        <v>49</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="15:20">
+      <c r="O57" t="s">
+        <v>224</v>
+      </c>
+      <c r="P57" t="s">
+        <v>49</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="15:20">
+      <c r="O58" t="s">
+        <v>227</v>
+      </c>
+      <c r="P58" t="s">
+        <v>49</v>
+      </c>
+      <c r="T58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="15:20">
+      <c r="O59" t="s">
+        <v>220</v>
+      </c>
+      <c r="P59" t="s">
+        <v>215</v>
+      </c>
+      <c r="T59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="15:20">
+      <c r="O60" t="s">
+        <v>227</v>
+      </c>
+      <c r="P60" t="s">
+        <v>49</v>
+      </c>
+      <c r="T60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="15:20">
+      <c r="O61" t="s">
+        <v>228</v>
+      </c>
+      <c r="P61" t="s">
+        <v>215</v>
+      </c>
+      <c r="T61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="15:20">
+      <c r="O62" t="s">
+        <v>229</v>
+      </c>
+      <c r="P62" t="s">
+        <v>215</v>
+      </c>
+      <c r="T62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="15:20">
+      <c r="O63" t="s">
+        <v>220</v>
+      </c>
+      <c r="P63" t="s">
+        <v>215</v>
+      </c>
+      <c r="T63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="15:20">
+      <c r="O64" t="s">
+        <v>222</v>
+      </c>
+      <c r="P64" t="s">
+        <v>217</v>
+      </c>
+      <c r="T64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="15:20">
+      <c r="O65" t="s">
+        <v>225</v>
+      </c>
+      <c r="P65" t="s">
+        <v>216</v>
+      </c>
+      <c r="T65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="15:20">
+      <c r="O66" t="s">
+        <v>222</v>
+      </c>
+      <c r="P66" t="s">
+        <v>219</v>
+      </c>
+      <c r="T66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="15:20">
+      <c r="O67" t="s">
+        <v>221</v>
+      </c>
+      <c r="P67" t="s">
+        <v>49</v>
+      </c>
+      <c r="T67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="15:20">
+      <c r="O68" t="s">
+        <v>221</v>
+      </c>
+      <c r="P68" t="s">
+        <v>49</v>
+      </c>
+      <c r="T68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="15:20">
+      <c r="O69" t="s">
+        <v>220</v>
+      </c>
+      <c r="P69" t="s">
+        <v>215</v>
+      </c>
+      <c r="T69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="15:20">
+      <c r="O70" t="s">
+        <v>230</v>
+      </c>
+      <c r="P70" t="s">
+        <v>217</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="15:20">
+      <c r="O71" t="s">
+        <v>221</v>
+      </c>
+      <c r="P71" t="s">
+        <v>49</v>
+      </c>
+      <c r="T71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="15:20">
+      <c r="O72" t="s">
+        <v>231</v>
+      </c>
+      <c r="P72" t="s">
+        <v>219</v>
+      </c>
+      <c r="T72" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="15:20">
+      <c r="O73" t="s">
+        <v>220</v>
+      </c>
+      <c r="P73" t="s">
+        <v>215</v>
+      </c>
+      <c r="T73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="15:20">
+      <c r="O74" t="s">
+        <v>220</v>
+      </c>
+      <c r="P74" t="s">
+        <v>215</v>
+      </c>
+      <c r="T74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="15:20">
+      <c r="O75" t="s">
+        <v>223</v>
+      </c>
+      <c r="P75" t="s">
+        <v>215</v>
+      </c>
+      <c r="T75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="15:20">
+      <c r="O76" t="s">
+        <v>231</v>
+      </c>
+      <c r="P76" t="s">
+        <v>215</v>
+      </c>
+      <c r="T76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="15:20">
+      <c r="O77" t="s">
+        <v>221</v>
+      </c>
+      <c r="P77" t="s">
+        <v>49</v>
+      </c>
+      <c r="T77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="15:20">
+      <c r="O78" t="s">
+        <v>220</v>
+      </c>
+      <c r="P78" t="s">
+        <v>215</v>
+      </c>
+      <c r="T78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="12" customWidth="1"/>
     <col min="2" max="8" width="18.28515625" style="1"/>
     <col min="9" max="9" width="18.28515625" style="3"/>
     <col min="10" max="14" width="18.28515625" style="1"/>
@@ -2081,7 +4004,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>240</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2155,7 +4078,7 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2229,7 +4152,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -2304,7 +4227,7 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <f t="shared" ref="A4:A30" si="0">A3+1</f>
         <v>3</v>
       </c>
@@ -2379,7 +4302,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2454,7 +4377,7 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2529,7 +4452,7 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2604,7 +4527,7 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2679,7 +4602,7 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2754,7 +4677,7 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2829,7 +4752,7 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2904,7 +4827,7 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2979,1007 +4902,74 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O13" t="s">
-        <v>220</v>
-      </c>
-      <c r="P13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1700001</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s">
-        <v>154</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" t="s">
-        <v>220</v>
-      </c>
-      <c r="P14" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1700002</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s">
-        <v>155</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="10">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15" t="s">
-        <v>220</v>
-      </c>
-      <c r="P15" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1700003</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" t="s">
-        <v>156</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="O16" t="s">
-        <v>221</v>
-      </c>
-      <c r="P16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>2400000</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" t="s">
-        <v>157</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="10">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O17" t="s">
-        <v>220</v>
-      </c>
-      <c r="P17" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" t="s">
-        <v>158</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="10">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O18" t="s">
-        <v>221</v>
-      </c>
-      <c r="P18" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T18" t="s">
-        <v>159</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="10">
-        <f>A18+1</f>
-        <v>18</v>
-      </c>
-      <c r="O19" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T19" t="s">
-        <v>160</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="10">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="O20" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" t="s">
-        <v>127</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="O21" t="s">
-        <v>222</v>
-      </c>
-      <c r="P21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T21" t="s">
-        <v>161</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="10">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="O22" t="s">
-        <v>220</v>
-      </c>
-      <c r="P22" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T22" t="s">
-        <v>162</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="10">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="O23" t="s">
-        <v>220</v>
-      </c>
-      <c r="P23" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>90000</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" t="s">
-        <v>163</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="10">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="O24" t="s">
-        <v>220</v>
-      </c>
-      <c r="P24" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>150000</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T24" t="s">
-        <v>164</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="10">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="O25" t="s">
-        <v>221</v>
-      </c>
-      <c r="P25" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>1700000</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T25" t="s">
-        <v>165</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="10">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="O26" t="s">
-        <v>220</v>
-      </c>
-      <c r="P26" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>1700001</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T26" t="s">
-        <v>166</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="10">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="O27" t="s">
-        <v>220</v>
-      </c>
-      <c r="P27" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>1700002</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T27" t="s">
-        <v>167</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="10">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="O28" t="s">
-        <v>220</v>
-      </c>
-      <c r="P28" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>1700003</v>
-      </c>
-      <c r="T28" t="s">
-        <v>144</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="O29" t="s">
-        <v>220</v>
-      </c>
-      <c r="P29" t="s">
-        <v>215</v>
-      </c>
-      <c r="T29" t="s">
-        <v>168</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="10">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="O30" t="s">
-        <v>220</v>
-      </c>
-      <c r="P30" t="s">
-        <v>215</v>
-      </c>
-      <c r="T30" t="s">
-        <v>169</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="O31" t="s">
-        <v>223</v>
-      </c>
-      <c r="P31" t="s">
-        <v>215</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="O32" t="s">
-        <v>224</v>
-      </c>
-      <c r="P32" t="s">
-        <v>215</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="15:24">
-      <c r="O33" t="s">
-        <v>220</v>
-      </c>
-      <c r="P33" t="s">
-        <v>215</v>
-      </c>
-      <c r="T33" t="s">
-        <v>171</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="15:24">
-      <c r="O34" t="s">
-        <v>220</v>
-      </c>
-      <c r="P34" t="s">
-        <v>215</v>
-      </c>
-      <c r="T34" t="s">
-        <v>172</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="15:24">
-      <c r="O35" t="s">
-        <v>225</v>
-      </c>
-      <c r="P35" t="s">
-        <v>216</v>
-      </c>
-      <c r="T35" t="s">
-        <v>173</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="15:24">
-      <c r="O36" t="s">
-        <v>225</v>
-      </c>
-      <c r="P36" t="s">
-        <v>216</v>
-      </c>
-      <c r="T36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="15:24">
-      <c r="O37" t="s">
-        <v>225</v>
-      </c>
-      <c r="P37" t="s">
-        <v>216</v>
-      </c>
-      <c r="T37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="15:24">
-      <c r="O38" t="s">
-        <v>220</v>
-      </c>
-      <c r="P38" t="s">
-        <v>215</v>
-      </c>
-      <c r="T38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="15:24">
-      <c r="O39" t="s">
-        <v>220</v>
-      </c>
-      <c r="P39" t="s">
-        <v>215</v>
-      </c>
-      <c r="T39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="15:24">
-      <c r="O40" t="s">
-        <v>220</v>
-      </c>
-      <c r="P40" t="s">
-        <v>215</v>
-      </c>
-      <c r="T40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="15:24">
-      <c r="O41" t="s">
-        <v>222</v>
-      </c>
-      <c r="P41" t="s">
-        <v>49</v>
-      </c>
-      <c r="T41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="15:24">
-      <c r="O42" t="s">
-        <v>221</v>
-      </c>
-      <c r="P42" t="s">
-        <v>49</v>
-      </c>
-      <c r="T42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="15:24">
-      <c r="O43" t="s">
-        <v>220</v>
-      </c>
-      <c r="P43" t="s">
-        <v>215</v>
-      </c>
-      <c r="T43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="15:24">
-      <c r="O44" t="s">
-        <v>220</v>
-      </c>
-      <c r="P44" t="s">
-        <v>215</v>
-      </c>
-      <c r="T44" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="15:24">
-      <c r="O45" t="s">
-        <v>221</v>
-      </c>
-      <c r="P45" t="s">
-        <v>49</v>
-      </c>
-      <c r="T45" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="15:24">
-      <c r="O46" t="s">
-        <v>226</v>
-      </c>
-      <c r="P46" t="s">
-        <v>217</v>
-      </c>
-      <c r="T46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="15:24">
-      <c r="O47" t="s">
-        <v>220</v>
-      </c>
-      <c r="P47" t="s">
-        <v>215</v>
-      </c>
-      <c r="T47" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="15:24">
-      <c r="O48" t="s">
-        <v>220</v>
-      </c>
-      <c r="P48" t="s">
-        <v>215</v>
-      </c>
-      <c r="T48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="15:20">
-      <c r="O49" t="s">
-        <v>221</v>
-      </c>
-      <c r="P49" t="s">
-        <v>49</v>
-      </c>
-      <c r="T49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="15:20">
-      <c r="O50" t="s">
-        <v>227</v>
-      </c>
-      <c r="P50" t="s">
-        <v>49</v>
-      </c>
-      <c r="T50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="15:20">
-      <c r="O51" t="s">
-        <v>221</v>
-      </c>
-      <c r="P51" t="s">
-        <v>49</v>
-      </c>
-      <c r="T51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="15:20">
-      <c r="O52" t="s">
-        <v>221</v>
-      </c>
-      <c r="P52" t="s">
-        <v>49</v>
-      </c>
-      <c r="T52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="15:20">
-      <c r="O53" t="s">
-        <v>220</v>
-      </c>
-      <c r="P53" t="s">
-        <v>215</v>
-      </c>
-      <c r="T53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="15:20">
-      <c r="O54" t="s">
-        <v>220</v>
-      </c>
-      <c r="P54" t="s">
-        <v>215</v>
-      </c>
-      <c r="T54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="15:20">
-      <c r="O55" t="s">
-        <v>222</v>
-      </c>
-      <c r="P55" t="s">
-        <v>218</v>
-      </c>
-      <c r="T55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="15:20">
-      <c r="O56" t="s">
-        <v>223</v>
-      </c>
-      <c r="P56" t="s">
-        <v>49</v>
-      </c>
-      <c r="T56" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="15:20">
-      <c r="O57" t="s">
-        <v>224</v>
-      </c>
-      <c r="P57" t="s">
-        <v>49</v>
-      </c>
-      <c r="T57" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="15:20">
-      <c r="O58" t="s">
-        <v>227</v>
-      </c>
-      <c r="P58" t="s">
-        <v>49</v>
-      </c>
-      <c r="T58" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="15:20">
-      <c r="O59" t="s">
-        <v>220</v>
-      </c>
-      <c r="P59" t="s">
-        <v>215</v>
-      </c>
-      <c r="T59" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="15:20">
-      <c r="O60" t="s">
-        <v>227</v>
-      </c>
-      <c r="P60" t="s">
-        <v>49</v>
-      </c>
-      <c r="T60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="15:20">
-      <c r="O61" t="s">
-        <v>228</v>
-      </c>
-      <c r="P61" t="s">
-        <v>215</v>
-      </c>
-      <c r="T61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="15:20">
-      <c r="O62" t="s">
-        <v>229</v>
-      </c>
-      <c r="P62" t="s">
-        <v>215</v>
-      </c>
-      <c r="T62" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="15:20">
-      <c r="O63" t="s">
-        <v>220</v>
-      </c>
-      <c r="P63" t="s">
-        <v>215</v>
-      </c>
-      <c r="T63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="15:20">
-      <c r="O64" t="s">
-        <v>222</v>
-      </c>
-      <c r="P64" t="s">
-        <v>217</v>
-      </c>
-      <c r="T64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="15:20">
-      <c r="O65" t="s">
-        <v>225</v>
-      </c>
-      <c r="P65" t="s">
-        <v>216</v>
-      </c>
-      <c r="T65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="15:20">
-      <c r="O66" t="s">
-        <v>222</v>
-      </c>
-      <c r="P66" t="s">
-        <v>219</v>
-      </c>
-      <c r="T66" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="15:20">
-      <c r="O67" t="s">
-        <v>221</v>
-      </c>
-      <c r="P67" t="s">
-        <v>49</v>
-      </c>
-      <c r="T67" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="15:20">
-      <c r="O68" t="s">
-        <v>221</v>
-      </c>
-      <c r="P68" t="s">
-        <v>49</v>
-      </c>
-      <c r="T68" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" spans="15:20">
-      <c r="O69" t="s">
-        <v>220</v>
-      </c>
-      <c r="P69" t="s">
-        <v>215</v>
-      </c>
-      <c r="T69" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="15:20">
-      <c r="O70" t="s">
-        <v>230</v>
-      </c>
-      <c r="P70" t="s">
-        <v>217</v>
-      </c>
-      <c r="T70" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="15:20">
-      <c r="O71" t="s">
-        <v>221</v>
-      </c>
-      <c r="P71" t="s">
-        <v>49</v>
-      </c>
-      <c r="T71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="15:20">
-      <c r="O72" t="s">
-        <v>231</v>
-      </c>
-      <c r="P72" t="s">
-        <v>219</v>
-      </c>
-      <c r="T72" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="15:20">
-      <c r="O73" t="s">
-        <v>220</v>
-      </c>
-      <c r="P73" t="s">
-        <v>215</v>
-      </c>
-      <c r="T73" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="15:20">
-      <c r="O74" t="s">
-        <v>220</v>
-      </c>
-      <c r="P74" t="s">
-        <v>215</v>
-      </c>
-      <c r="T74" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="15:20">
-      <c r="O75" t="s">
-        <v>223</v>
-      </c>
-      <c r="P75" t="s">
-        <v>215</v>
-      </c>
-      <c r="T75" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="15:20">
-      <c r="O76" t="s">
-        <v>231</v>
-      </c>
-      <c r="P76" t="s">
-        <v>215</v>
-      </c>
-      <c r="T76" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="15:20">
-      <c r="O77" t="s">
-        <v>221</v>
-      </c>
-      <c r="P77" t="s">
-        <v>49</v>
-      </c>
-      <c r="T77" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="15:20">
-      <c r="O78" t="s">
-        <v>220</v>
-      </c>
-      <c r="P78" t="s">
-        <v>215</v>
-      </c>
-      <c r="T78" t="s">
-        <v>214</v>
-      </c>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="17:20">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="17:20">
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="17:20">
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="17:20">
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="17:20">
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="17:20">
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="17:20">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="17:20">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="17:20">
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="17:20">
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="17:20">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="17:20">
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="31" spans="17:20">
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="17:20">
+      <c r="T32" s="7"/>
+    </row>
+    <row r="56" spans="20:20">
+      <c r="T56" s="7"/>
+    </row>
+    <row r="57" spans="20:20">
+      <c r="T57" s="7"/>
+    </row>
+    <row r="70" spans="20:20">
+      <c r="T70" s="8"/>
+    </row>
+    <row r="72" spans="20:20">
+      <c r="T72" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3993,4 +4983,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>